--- a/s1cDNASample/s1CDNASample_J.PLAGGENBERG_05.30.19.xlsx
+++ b/s1cDNASample/s1CDNASample_J.PLAGGENBERG_05.30.19.xlsx
@@ -78,11 +78,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -98,6 +99,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -142,8 +150,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -171,7 +183,7 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -183,7 +195,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.99"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="11.52"/>
@@ -211,7 +223,7 @@
       <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="0" t="s">
@@ -246,7 +258,7 @@
       <c r="H2" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J2" s="0" t="s">
@@ -278,7 +290,7 @@
       <c r="H3" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J3" s="0" t="s">
@@ -310,7 +322,7 @@
       <c r="H4" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J4" s="0" t="s">
@@ -342,7 +354,7 @@
       <c r="H5" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J5" s="0" t="s">
@@ -374,7 +386,7 @@
       <c r="H6" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J6" s="0" t="s">
@@ -406,7 +418,7 @@
       <c r="H7" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J7" s="0" t="s">
@@ -438,7 +450,7 @@
       <c r="H8" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J8" s="0" t="s">
@@ -470,7 +482,7 @@
       <c r="H9" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J9" s="0" t="s">
@@ -502,7 +514,7 @@
       <c r="H10" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J10" s="0" t="s">
@@ -534,7 +546,7 @@
       <c r="H11" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J11" s="0" t="s">
@@ -566,7 +578,7 @@
       <c r="H12" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J12" s="0" t="s">
@@ -598,7 +610,7 @@
       <c r="H13" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J13" s="0" t="s">
@@ -630,7 +642,7 @@
       <c r="H14" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J14" s="0" t="s">
@@ -662,7 +674,7 @@
       <c r="H15" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J15" s="0" t="s">
@@ -694,7 +706,7 @@
       <c r="H16" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J16" s="0" t="s">
@@ -726,7 +738,7 @@
       <c r="H17" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J17" s="0" t="s">
@@ -758,7 +770,7 @@
       <c r="H18" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J18" s="0" t="s">
@@ -790,7 +802,7 @@
       <c r="H19" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J19" s="0" t="s">
@@ -822,7 +834,7 @@
       <c r="H20" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J20" s="0" t="s">
@@ -854,7 +866,7 @@
       <c r="H21" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I21" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J21" s="0" t="s">
@@ -886,7 +898,7 @@
       <c r="H22" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I22" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J22" s="0" t="s">
@@ -918,7 +930,7 @@
       <c r="H23" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I23" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J23" s="0" t="s">
@@ -950,7 +962,7 @@
       <c r="H24" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I24" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J24" s="0" t="s">
@@ -982,7 +994,7 @@
       <c r="H25" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="I25" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J25" s="0" t="s">
@@ -1014,7 +1026,7 @@
       <c r="H26" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="I26" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J26" s="0" t="s">
@@ -1046,7 +1058,7 @@
       <c r="H27" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="I27" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J27" s="0" t="s">
@@ -1078,7 +1090,7 @@
       <c r="H28" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="I28" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J28" s="0" t="s">
@@ -1110,7 +1122,7 @@
       <c r="H29" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="I29" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J29" s="0" t="s">
@@ -1142,7 +1154,7 @@
       <c r="H30" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="I30" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J30" s="0" t="s">
@@ -1174,7 +1186,7 @@
       <c r="H31" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="I31" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J31" s="0" t="s">
@@ -1206,7 +1218,7 @@
       <c r="H32" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="I32" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J32" s="0" t="s">
@@ -1238,7 +1250,7 @@
       <c r="H33" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="I33" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J33" s="0" t="s">
@@ -1270,7 +1282,7 @@
       <c r="H34" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="I34" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J34" s="0" t="s">
@@ -1302,7 +1314,7 @@
       <c r="H35" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="I35" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J35" s="0" t="s">
@@ -1334,7 +1346,7 @@
       <c r="H36" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I36" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J36" s="0" t="s">
@@ -1366,7 +1378,7 @@
       <c r="H37" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="I37" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J37" s="0" t="s">

--- a/s1cDNASample/s1CDNASample_J.PLAGGENBERG_05.30.19.xlsx
+++ b/s1cDNASample/s1CDNASample_J.PLAGGENBERG_05.30.19.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="17">
   <si>
     <t xml:space="preserve">rnaDate</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t xml:space="preserve">J.PLAGGENBERG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05.31.19</t>
   </si>
   <si>
     <t xml:space="preserve">E7490L</t>
@@ -78,7 +81,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -105,6 +108,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Cambria"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -150,12 +159,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -183,7 +196,7 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2:D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -195,7 +208,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.99"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="11.52"/>
@@ -233,7 +246,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>10</v>
       </c>
@@ -243,29 +256,29 @@
       <c r="C2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>10</v>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>10</v>
+      <c r="F2" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>10</v>
       </c>
@@ -275,29 +288,29 @@
       <c r="C3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>10</v>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>10</v>
+      <c r="F3" s="0" t="n">
+        <v>2</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
@@ -307,29 +320,29 @@
       <c r="C4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>10</v>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>10</v>
+      <c r="F4" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>10</v>
       </c>
@@ -339,29 +352,29 @@
       <c r="C5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>10</v>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>10</v>
+      <c r="F5" s="0" t="n">
+        <v>4</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>10</v>
       </c>
@@ -371,29 +384,29 @@
       <c r="C6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>10</v>
+      <c r="D6" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="0" t="s">
-        <v>10</v>
+      <c r="F6" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>10</v>
       </c>
@@ -403,29 +416,29 @@
       <c r="C7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>10</v>
+      <c r="D7" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="0" t="s">
-        <v>10</v>
+      <c r="F7" s="0" t="n">
+        <v>6</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>10</v>
       </c>
@@ -435,29 +448,29 @@
       <c r="C8" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>10</v>
+      <c r="D8" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="0" t="s">
-        <v>10</v>
+      <c r="F8" s="0" t="n">
+        <v>7</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>10</v>
       </c>
@@ -467,29 +480,29 @@
       <c r="C9" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="D9" s="0" t="s">
-        <v>10</v>
+      <c r="D9" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="0" t="s">
-        <v>10</v>
+      <c r="F9" s="0" t="n">
+        <v>8</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>10</v>
       </c>
@@ -499,29 +512,29 @@
       <c r="C10" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>10</v>
+      <c r="D10" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="0" t="s">
-        <v>10</v>
+      <c r="F10" s="0" t="n">
+        <v>9</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>10</v>
       </c>
@@ -531,29 +544,29 @@
       <c r="C11" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="D11" s="0" t="s">
-        <v>10</v>
+      <c r="D11" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>10</v>
       </c>
@@ -563,29 +576,29 @@
       <c r="C12" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="D12" s="0" t="s">
-        <v>10</v>
+      <c r="D12" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="0" t="s">
-        <v>10</v>
+      <c r="F12" s="0" t="n">
+        <v>11</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>10</v>
       </c>
@@ -595,29 +608,29 @@
       <c r="C13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="D13" s="0" t="s">
-        <v>10</v>
+      <c r="D13" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="0" t="s">
-        <v>10</v>
+      <c r="F13" s="0" t="n">
+        <v>12</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>10</v>
       </c>
@@ -627,29 +640,29 @@
       <c r="C14" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="D14" s="0" t="s">
-        <v>10</v>
+      <c r="D14" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="0" t="s">
-        <v>10</v>
+      <c r="F14" s="0" t="n">
+        <v>13</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>10</v>
       </c>
@@ -659,29 +672,29 @@
       <c r="C15" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="D15" s="0" t="s">
-        <v>10</v>
+      <c r="D15" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="0" t="s">
-        <v>10</v>
+      <c r="F15" s="0" t="n">
+        <v>14</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>10</v>
       </c>
@@ -691,29 +704,29 @@
       <c r="C16" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="D16" s="0" t="s">
-        <v>10</v>
+      <c r="D16" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="0" t="s">
-        <v>10</v>
+      <c r="F16" s="0" t="n">
+        <v>15</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>10</v>
       </c>
@@ -723,29 +736,29 @@
       <c r="C17" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="D17" s="0" t="s">
-        <v>10</v>
+      <c r="D17" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="0" t="s">
-        <v>10</v>
+      <c r="F17" s="0" t="n">
+        <v>16</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>10</v>
       </c>
@@ -755,29 +768,29 @@
       <c r="C18" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="D18" s="0" t="s">
-        <v>10</v>
+      <c r="D18" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="0" t="s">
-        <v>10</v>
+      <c r="F18" s="0" t="n">
+        <v>17</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>10</v>
       </c>
@@ -787,29 +800,29 @@
       <c r="C19" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D19" s="0" t="s">
-        <v>10</v>
+      <c r="D19" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="0" t="s">
-        <v>10</v>
+      <c r="F19" s="0" t="n">
+        <v>18</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>10</v>
       </c>
@@ -819,29 +832,29 @@
       <c r="C20" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="D20" s="0" t="s">
-        <v>10</v>
+      <c r="D20" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="0" t="s">
-        <v>10</v>
+      <c r="F20" s="0" t="n">
+        <v>19</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>10</v>
       </c>
@@ -851,29 +864,29 @@
       <c r="C21" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="D21" s="0" t="s">
-        <v>10</v>
+      <c r="D21" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="0" t="s">
-        <v>10</v>
+      <c r="F21" s="0" t="n">
+        <v>20</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>10</v>
       </c>
@@ -883,29 +896,29 @@
       <c r="C22" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="D22" s="0" t="s">
-        <v>10</v>
+      <c r="D22" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E22" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="0" t="s">
-        <v>10</v>
+      <c r="F22" s="0" t="n">
+        <v>21</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>10</v>
       </c>
@@ -915,29 +928,29 @@
       <c r="C23" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="D23" s="0" t="s">
-        <v>10</v>
+      <c r="D23" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E23" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="0" t="s">
-        <v>10</v>
+      <c r="F23" s="0" t="n">
+        <v>22</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>10</v>
       </c>
@@ -947,29 +960,29 @@
       <c r="C24" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="D24" s="0" t="s">
-        <v>10</v>
+      <c r="D24" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E24" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="0" t="s">
-        <v>10</v>
+      <c r="F24" s="0" t="n">
+        <v>23</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>10</v>
       </c>
@@ -979,29 +992,29 @@
       <c r="C25" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="D25" s="0" t="s">
-        <v>10</v>
+      <c r="D25" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E25" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="0" t="s">
-        <v>10</v>
+      <c r="F25" s="0" t="n">
+        <v>24</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>10</v>
       </c>
@@ -1011,29 +1024,29 @@
       <c r="C26" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="D26" s="0" t="s">
-        <v>10</v>
+      <c r="D26" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E26" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="0" t="s">
-        <v>10</v>
+      <c r="F26" s="0" t="n">
+        <v>25</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>10</v>
       </c>
@@ -1043,29 +1056,29 @@
       <c r="C27" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="D27" s="0" t="s">
-        <v>10</v>
+      <c r="D27" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E27" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="0" t="s">
-        <v>10</v>
+      <c r="F27" s="0" t="n">
+        <v>26</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>10</v>
       </c>
@@ -1075,29 +1088,29 @@
       <c r="C28" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="D28" s="0" t="s">
-        <v>10</v>
+      <c r="D28" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E28" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F28" s="0" t="s">
-        <v>10</v>
+      <c r="F28" s="0" t="n">
+        <v>27</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>10</v>
       </c>
@@ -1107,29 +1120,29 @@
       <c r="C29" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="D29" s="0" t="s">
-        <v>10</v>
+      <c r="D29" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E29" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="0" t="s">
-        <v>10</v>
+      <c r="F29" s="0" t="n">
+        <v>28</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>10</v>
       </c>
@@ -1139,29 +1152,29 @@
       <c r="C30" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="D30" s="0" t="s">
-        <v>10</v>
+      <c r="D30" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E30" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="0" t="s">
-        <v>10</v>
+      <c r="F30" s="0" t="n">
+        <v>29</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>10</v>
       </c>
@@ -1171,29 +1184,29 @@
       <c r="C31" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="D31" s="0" t="s">
-        <v>10</v>
+      <c r="D31" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E31" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F31" s="0" t="s">
-        <v>10</v>
+      <c r="F31" s="0" t="n">
+        <v>30</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>10</v>
       </c>
@@ -1203,29 +1216,29 @@
       <c r="C32" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="D32" s="0" t="s">
-        <v>10</v>
+      <c r="D32" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E32" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="0" t="s">
-        <v>10</v>
+      <c r="F32" s="0" t="n">
+        <v>31</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>10</v>
       </c>
@@ -1235,29 +1248,29 @@
       <c r="C33" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="D33" s="0" t="s">
-        <v>10</v>
+      <c r="D33" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E33" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F33" s="0" t="s">
-        <v>10</v>
+      <c r="F33" s="0" t="n">
+        <v>32</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>10</v>
       </c>
@@ -1267,29 +1280,29 @@
       <c r="C34" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="D34" s="0" t="s">
-        <v>10</v>
+      <c r="D34" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E34" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F34" s="0" t="s">
-        <v>10</v>
+      <c r="F34" s="0" t="n">
+        <v>33</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>10</v>
       </c>
@@ -1299,29 +1312,29 @@
       <c r="C35" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="D35" s="0" t="s">
-        <v>10</v>
+      <c r="D35" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E35" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="0" t="s">
-        <v>10</v>
+      <c r="F35" s="0" t="n">
+        <v>34</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>10</v>
       </c>
@@ -1331,29 +1344,29 @@
       <c r="C36" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="D36" s="0" t="s">
-        <v>10</v>
+      <c r="D36" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E36" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F36" s="0" t="s">
-        <v>10</v>
+      <c r="F36" s="0" t="n">
+        <v>35</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>10</v>
       </c>
@@ -1363,26 +1376,26 @@
       <c r="C37" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="D37" s="0" t="s">
-        <v>10</v>
+      <c r="D37" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="E37" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="F37" s="0" t="s">
-        <v>10</v>
+      <c r="F37" s="0" t="n">
+        <v>36</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
